--- a/biology/Botanique/Bois_de_Grand_Champs/Bois_de_Grand_Champs.xlsx
+++ b/biology/Botanique/Bois_de_Grand_Champs/Bois_de_Grand_Champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bois de Grand Champs est un petit bois, classé ZNIEFF de type I, situé entre les communes de Attignat et Viriat dans le département de l'Ain.
@@ -512,9 +524,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site est classé zone naturelle d'intérêt écologique, faunistique et floristique de type I [2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site est classé zone naturelle d'intérêt écologique, faunistique et floristique de type I 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit bois est situé à proximité de l'autoroute A39.
 </t>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,7 +618,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site compte une petite population de sonneurs à ventre jaune. Ce batracien protégé, affectionne les sous-bois humides, sa survie est conditionnée au maintien des points d'eau stagnante, mares et dépressions inondées.
 </t>
